--- a/biology/Histoire de la zoologie et de la botanique/Isaac_Krassilchik/Isaac_Krassilchik.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Isaac_Krassilchik/Isaac_Krassilchik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Krassilchik (1857 - 1920) est un naturaliste d'origine russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aîné de six frères et sœurs, Isaac Krassilchik est né le 14 avril 1857 (26 avril dans le calendrier grégorien) à Kichinev en Bessarabie, alors russe. Il est mort le 3 novembre 1920, selon le calendrier grégorien, affaibli par un accident cardio-vasculaire. Né russe, il est mort roumain après l’annexion de la Bessarabie par la Roumanie en 1918.
 Il a fait ses études secondaires au lycée d'Ananiev (gouvernement de Kherson en Ukraine) et ses études supérieures à la section des sciences naturelles, physique et mathématique de l’université de Nouvelle Russie d’Odessa de 1878 à 1882, où il s’est spécialisé dans la zoologie des invertébrés.
@@ -524,7 +538,7 @@
 Isaac Krassilchik pratiqua également une activité de recherche et d‘application concernant les pesticides chimiques, à une époque où la nécessité de préserver les cultures vivrières des organismes nuisibles et d‘éviter le retour des famines – encore fréquentes au XIXe siècle  - constituait une grave préoccupation des  peuples et de leurs agronomes (ainsi : famine russe de 1891-1892).
 C’est par ses activités dans le domaine de la lutte contre les insectes nuisibles au moyen d’organismes vivants qu’Isaac Krassilchik peut être considéré comme un pionnier.
 Son activité dans le domaine de la lutte phytosanitaire au moyen de produits chimiques est moins connue car elle a laissé très peu de traces en raison de la perte des documents qui s’y rapportent. Elle fut néanmoins importante pour ses contemporains.
-S'il demeure un naturaliste, il entretiendra toute sa vie des rapports étroits avec l'Institut Pasteur qui accueillit son ancien professeur à l’université d’Odessa, I.I. Metchnikov à partir de 1888 et son condisciple à la même université, W. Haffkine, entre 1890 et 1893. Isaac Krassilchik assista  au cours de microbie technique de l’Institut Pasteur, organisé dans les locaux de l’Institut du 1er novembre 1904 à  la fin de février 1905 et  qui regroupa 77 participants venus du monde entier. Il figure avec la majorité des participants sur une photo de groupe faisant partie des archives de l’Institut Pasteur. Au premier rang, outre Waldemar Haffkine[1], se trouvent les professeurs du cours : le Dr Charles Nicolle, le Dr Mesnil, le Dr Charles Louis Alphonse Laveran, découvreur du parasite protozoaire du paludisme, le Pr Émile Roux, le Pr Élie Metchnikov, le Dr Borel, le Dr Binot, le Dr Pinoy et le Dr Sergent[2].
+S'il demeure un naturaliste, il entretiendra toute sa vie des rapports étroits avec l'Institut Pasteur qui accueillit son ancien professeur à l’université d’Odessa, I.I. Metchnikov à partir de 1888 et son condisciple à la même université, W. Haffkine, entre 1890 et 1893. Isaac Krassilchik assista  au cours de microbie technique de l’Institut Pasteur, organisé dans les locaux de l’Institut du 1er novembre 1904 à  la fin de février 1905 et  qui regroupa 77 participants venus du monde entier. Il figure avec la majorité des participants sur une photo de groupe faisant partie des archives de l’Institut Pasteur. Au premier rang, outre Waldemar Haffkine, se trouvent les professeurs du cours : le Dr Charles Nicolle, le Dr Mesnil, le Dr Charles Louis Alphonse Laveran, découvreur du parasite protozoaire du paludisme, le Pr Émile Roux, le Pr Élie Metchnikov, le Dr Borel, le Dr Binot, le Dr Pinoy et le Dr Sergent.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Les recherches sur l'espèce Polytoma Ehrenberg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1882, Isaac Krassilchik publie un article intitulé Vers une histoire du développement et de la systématique de l'espèce Polytoma Ehrenberg dans une revue russe Notes de la société des naturalistes de Nouvelle Russie et dans une revue allemande, Zoologischer Anzeiger.
 Il axe ses premières recherches vers un organisme unicellulaire sphérique ou ovoïde, se mouvant à l’aide de deux cils ou flagelles, qui a été découvert en 1830  par le naturaliste et zoologiste allemand Christian Gottfried Ehrenberg (1795-1876). Il s’agit de la Polytoma uvella.
@@ -586,7 +602,9 @@
           <t>Les travaux d’Isaac Krassilchik concernant la lutte contre les insectes nuisibles au moyen d’organismes vivants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Krassilchik va se consacrer à la lutte contre les insectes nuisibles à diverses cultures tenant une place importante dans l’agriculture russe, telles la betterave sucrière et la vigne.
 Ses travaux sur les méthodes de protection à l’aide de microorganismes  (aujourd’hui dénommés biopesticides) sont les plus originaux et le rattachent directement à la modernité  de Pasteur.
@@ -602,7 +620,7 @@
 En 1888 et 1889, la Société entomologique de France va se faire largement  l’écho des travaux d’Isaac Krassilchik notamment grâce à son président Jules Künckel d'Herculais, en estimant que les voies ouvertes par I.I. Metchnikov et Isaac Krassilchik sont de nature à contribuer à la lutte contre les acridiens en Algérie.
 Dans ses séances des 11 juillet et 12 septembre 1888 ainsi que du 9 janvier 1889, la Société entomologique de France commente largement les travaux de I.I. Metchnikov et d’Isaac M Krassilchik concernant la lutte contre l’insecte prédateur de la betterave à sucre, Cleonus Punctivris, au moyen du champignon Entomophthora anisopliae ou Metarhizium anisopliae, tuant l’insecte par la sécrétion de muscardine.
 La Société entomologique de France ne doute pas que les travaux de Metchnikov et leur application industrielle par Isaac Krassilchik, seraient de nature à aider grandement la France à lutter contre les acridiens qui envahissent à l’époque une partie de l’Algérie.
-Jules Künckel d’Herculais mentionne ces travaux dans deux rapports au Gouverneur général de l’Algérie en mai et août 1888[3].
+Jules Künckel d’Herculais mentionne ces travaux dans deux rapports au Gouverneur général de l’Algérie en mai et août 1888.
 Il mentionne également ces travaux dans une communication à l’Académie des sciences dont il est membre dans la période 1889-1894.
 Durant l’année 1889, Isaac Krassilchik va publier deux articles dans Les Annales de l’Institut Pasteur dont l’un porte le titre : Sur les bactéries biophytes – Note sur la symbiose des pucerons avec les bactéries  qui est signé J. Krassilstchik, à Odessa. Le même article semble avoir été publié en 1890, mais en allemand, sous le titre Ueber eine Neue Kategorie von Bakterien (Biophyten) die in Inneren einen Organismus leben und ihm Nutzen bringen – Kongress Russ. Naturf. Aerzte, 16 janvier 1890 ("Sur une nouvelle catégorie de bactéries [biophytes] qui vivent à l’intérieur d’un organisme et qui le nourrissent").
 Cet article d’Isaac Krassilchik présente une réelle importance.
@@ -637,7 +655,9 @@
           <t>La lutte contre les prédateurs de l’agriculture au moyen de pesticides chimiques - La lutte contre le phylloxéra</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son service militaire, Isaac Krassilchik devient fonctionnaire du ministère de l’Agriculture. De 1883 à 1888, il travaille comme expert à la Commission de la Société agricole de la Russie méridionale pour la lutte contre le puceron du phylloxéra, dans les vignobles des régions de Kichinev, Akkerman et Kherson dans le Sud de la  Bessarabie  et en Roumanie.
 Il organise un laboratoire entomologique au lycée de Kichinev pour l’étude des méthodes de lutte contre le phylloxéra utilisées en France, Allemagne, Suisse et Hongrie.
@@ -669,7 +689,9 @@
           <t>La lutte contre le mildiou de la vigne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Krassilchik aurait été le premier à étudier le mildiou de la vigne en Bessarabie. Cette maladie de la vigne, provoquée par un champignon, Plasmopara viticola, est apparue en France en 1878 et s’est ensuite transmise vers l’est du continent européen. À la différence du phylloxera, les traitements sont chimiques.
 </t>
@@ -700,7 +722,9 @@
           <t>Isaac Krassilchik et les autres pesticides chimiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de 1890, il est nommé chef du département pédagogique pour l’étude des sols de Saint-Pétersbourg mais il reste en poste à Kichinev en Bessarabie. Il expérimente des préparations à base d’hydrocarbures et d’arsenic (As).
 Il sera amené à amplifier ses recherches dans ce domaine à partir de 1910.
@@ -732,7 +756,9 @@
           <t>La découverte de l’organisme Cercobodola ciniaegerens</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1882, Isaac Krassilchik avait publié un article intitulé Vers une histoire du développement et de la systématique de l'espèce Polytoma Ehrenberg dans une revue russe Notes de la société des naturalistes de Nouvelle Russie et dans une revue allemande, Zoologischer Anzeiger.
 Il continuera ses recherches sur les microorganismes et répertoria en 1886 un microorganisme qui reste nommé aujourd’hui  Cercobodo Krassilstschick.
@@ -766,7 +792,9 @@
           <t>Autres domaines de recherche</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a encore consacré des recherches aux parasites du lin et à l’œnologie.
 Dès sa création en 1910, et jusqu’en 1919, Isaac Krassilchik a dirigé la station bio-entomologique de Kichinev.
